--- a/Assets/Textures/textes_traduction_AS-SOREZE.xlsx
+++ b/Assets/Textures/textes_traduction_AS-SOREZE.xlsx
@@ -13,8 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="CONTENUS APPLICATIF GLOBAL" sheetId="1" r:id="rId1"/>
-    <sheet name="AIDES INTERACTIONS" sheetId="3" r:id="rId2"/>
-    <sheet name="FICHES OEUVRES" sheetId="2" r:id="rId3"/>
+    <sheet name="FICHES OEUVRES" sheetId="2" r:id="rId2"/>
+    <sheet name="AIDES INTERACTIONS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="761">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -91,9 +91,6 @@
     <t>« T’inquiète pas Salvador, on va s’en occuper. Tu as raison, ce beau musée ne mérite pas ça ! Tu veux bien nous en dire un peu plus ? » (Maurice)</t>
   </si>
   <si>
-    <t>« Merci les As ! Pour vous aider, laissez-moi vous montrer les magnifiques oeuvres qui ont été vandalisées, sur le plan du musée ! Je vous ai marqué les emplacements avec des symboles. » (Salvador)</t>
-  </si>
-  <si>
     <t>« Merci Salvador, on sait maintenant par où commencer notre enquête. » (Maurice).</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
   </si>
   <si>
     <t>« Ah, Maurizio, je suis content de te voir ! C’est une catastrophe ! C’est un terrible malheur ! Le musée Dom Robert est en grand danger ! Tout est sens dessus dessous ! Maurizio, tu dois faire quelque chose rápido…On ne peut pas laisser le musée comme ça pour le public ! Ce n’est pas possible ! Des chefs d’oeuvres ont été vandalisés, tout est en désordre, il faut m’aider, por favor ! »</t>
-  </si>
-  <si>
-    <t>« OK Gilbert, c’est super, on va tester ça. Trouvons un symbole et voyons si ça marche. » (Maurice)</t>
   </si>
   <si>
     <t>« Parfait, merci Salvador ! On va pouvoir apprendre tout en s’amusant, et on n’hésitera pas à demander de l’aide à ton disciple !» (Maurice).</t>
@@ -592,32 +586,6 @@
     <t>RETOUR A L'ACCUEIL</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">« Ah oui, merci de me le rappeler Junior ! Avant de partir, n’oublie pas de récupérer ta photo à l’accueil du musée ! Allez, en route les amis, on rentre au Repaire. Quelqu’un nous y attend peut-être avec une nouvelle mission. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Les As de la Jungle : A LA RESCOUSSE ! </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>» (Maurice)</t>
-    </r>
-  </si>
-  <si>
     <t>present</t>
   </si>
   <si>
@@ -733,9 +701,6 @@
   </si>
   <si>
     <t>Oh Gilbert, what a wonderful invention! But, tell us, how does it work ?</t>
-  </si>
-  <si>
-    <t>OK Gilbert, it's great, we're going to test that. Let's find a symbol and see if it works.</t>
   </si>
   <si>
     <t xml:space="preserve">Perfect, thank you Salvador! We are going to learn while having fun, and we won't hesitate to ask your disciple for help !
@@ -1138,22 +1103,6 @@
     <t>Blop blop blop !!!!</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Ah yes, thank you for reminding me Junior ! Before leaving, don't forget to collect your picture at the museum reception ! Come on, friends, let's go back to the Den. Maybe someone is waiting for us with a new mission. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Jungle Bunch : TO THE RESCUE !</t>
-    </r>
-  </si>
-  <si>
     <t>Indeed Junior, it's a tablet ! But much more elaborate …</t>
   </si>
   <si>
@@ -1184,12 +1133,6 @@
     <t>2nd floor entrance</t>
   </si>
   <si>
-    <t>Symboles</t>
-  </si>
-  <si>
-    <t>Symbols</t>
-  </si>
-  <si>
     <t>Accueil</t>
   </si>
   <si>
@@ -1217,9 +1160,6 @@
     <t>Recherche de scan</t>
   </si>
   <si>
-    <t>Analyse du scan en cours</t>
-  </si>
-  <si>
     <t>Miguel beats i.PAWN if not work! "(Miguel)</t>
   </si>
   <si>
@@ -1227,112 +1167,6 @@
   </si>
   <si>
     <t>Scan search</t>
-  </si>
-  <si>
-    <t>Scan analysis in progress</t>
-  </si>
-  <si>
-    <t>Perfect, your i.PAWN is working Gilbert ! We managed to scan the first masterpiece thanks to the symbol left by Salvador.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">« Ah Maurice ! C’est l’occasion idéale pour vous présenter ma toute dernière invention : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>l’Interpréteur Pour Algorithmes Transposables de Technologie Expérimentale</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, ou plus simplement l’</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i.PATTE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ! Avec cet outil, nous allons pouvoir scanner les oeuvres et mettre en lumière les éventuels problèmes » (Gilbert).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ah Maurice! This is the perfect opportunity to present my latest invention: the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Interpretor Pad for an Advanced Wild Nature</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, or more simply the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">i.PAWN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>! With this tool, we will be able to scan the pieces and highlight any problems.</t>
-    </r>
-  </si>
-  <si>
-    <t>« L’i.PATTE, comme je viens de le dire, va nous permettre d’analyser les oeuvres et de les réparer. Nous devons trouver les symboles laissés par Salvador pour savoir quelles oeuvres scanner, en appuyant sur ce bouton. Pour nous rendre au bon endroit, nous pouvons utiliser le plan du musée. En appuyant sur ce bouton, nous ouvrons le menu Paramètres, très utile pour activer ou non le son mais aussi choisir une langue. Quant à ce bouton, il permet de revenir au tout début de l’aventure ou de quitter une épreuve. Bon, je crois que j’ai fait le tour.» (Gilbert)</t>
-  </si>
-  <si>
-    <t>The i.PAWN, as I just said, will allow us to analyze the masterpieces and repair them. We have to find the symbols left by Salvador and to know which works to scan, by pressing this button. To get to the right place, we can use the museum map. By pressing this button, we open the Settings menu, very useful in order to activate or not the sound but also to change language. As for this button, it allows you to return to the very beginning of the adventure or to leave an event. Well, I think I went around. (Gilbert)</t>
   </si>
   <si>
     <r>
@@ -1351,9 +1185,6 @@
     </r>
   </si>
   <si>
-    <t>« Parfait, ça marche ! Ton i.PATTE fonctionne Gilbert. On a réussi à scanner la première oeuvre grâce au symbole laissé par Salvador. » (Maurice)</t>
-  </si>
-  <si>
     <t>« De rien Salvador, on est toujours ravis de mettre un terme aux agissements de Vladimir ! Et puis ça nous a fait une jolie balade au coeur du Musée Dom Robert. Et merci à toi mon ami de nous avoir accompagné tout au long de cette aventure. Rien n’aurait été possible sans ton aide. Avant de rentrer, j’ai une petite surprise pour toi, juste à côté du bureau d'informations à l'étage ! » (Maurice)</t>
   </si>
   <si>
@@ -1467,71 +1298,15 @@
     <t>No te preocupes Salvador, nosotros nos encargaremos. Tienes razón, este hermoso museo no merece esto. ¿Nos contarás un poco más?</t>
   </si>
   <si>
-    <t>Gracias amigos ! ¡Para ayudarlo, permítame mostrarle las magníficas obras que han sido destrozadas en el plan del museo! Marqué las ubicaciones con símbolos para ti.</t>
-  </si>
-  <si>
     <t>Gracias Salvador, ahora sabemos dónde comenzar nuestra investigación.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">¡Ah, Maurice! Esta es la oportunidad perfecta para presentar mi último invento: el </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Interpretor Pad for an Advanced Wild Nature</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, o más simplemente el </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">i.PAWN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>! Con esta herramienta, podremos escanear los trabajos y resaltar cualquier problema.</t>
-    </r>
-  </si>
-  <si>
     <t>De hecho Junior, es una tableta! Pero mucho más elaborado ...</t>
   </si>
   <si>
     <t>¡Oh Gilbert, qué maravilloso invento! Pero, cuéntanos, ¿cómo funciona ?</t>
   </si>
   <si>
-    <t>El I.PAWN, como acabo de decir, nos permitirá analizar los trabajos y repararlos. Tenemos que encontrar los símbolos que dejó Salvador para saber cuál funciona para escanear, presionando este botón. Para llegar al lugar correcto, podemos usar el mapa del museo. Al presionar este botón, abrimos el menú Configuración, muy útil para activar o no el sonido, pero también para elegir un idioma. En cuanto a este botón, le permite volver al comienzo de la aventura o abandonar un evento. Bueno, creo que di la vuelta.</t>
-  </si>
-  <si>
-    <t>OK Gilbert, es genial, vamos a probar eso. Busquemos un símbolo y veamos si funciona.</t>
-  </si>
-  <si>
     <t>Perfecto, gracias Salvador! ¡Podremos aprender mientras nos divertimos, y no dudaremos en pedirle ayuda a tu discípulo!</t>
   </si>
   <si>
@@ -1541,9 +1316,6 @@
     <t>Escanear búsqueda</t>
   </si>
   <si>
-    <t>Análisis del escaneo actual</t>
-  </si>
-  <si>
     <t>Scan problem: "Hmmm, there must be an error ... But certainly not in the program! Try to get closer to the symbol or to better frame it and relaunch a scan… Grmmbll ”.</t>
   </si>
   <si>
@@ -1553,9 +1325,6 @@
     <t>Análisis de escaneo ok!</t>
   </si>
   <si>
-    <t>¡Perfecto, funciona! Tu i.PATTE está funcionando Gilbert. Logramos escanear el primer trabajo gracias al símbolo que dejó Salvador.</t>
-  </si>
-  <si>
     <t>SI SCAN SYMBOLE PHOTO REALISE AVANT EPREUVE FINALE</t>
   </si>
   <si>
@@ -1572,9 +1341,6 @@
   </si>
   <si>
     <t>Sí, sí, bien hecho Gilbert ... Bueno, vamos amigos, ahora tenemos que poner todo en orden y descubrir quién está detrás. Y tú mi amigo, ¿crees que puedes ayudarnos?</t>
-  </si>
-  <si>
-    <t>DOMéro d'Art (ou le canon à couleurs)</t>
   </si>
   <si>
     <t>El cañón de color</t>
@@ -2010,214 +1776,6 @@
     <t>¿QUÉ? Pequeño personaje? Yo? ¿El gran Vladimir? ¡No te permito hablar así! Me vengaré !</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Ouvre la boîte à outils et choisi </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>les 4 pieds</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (on dirait des poutres) et positionne-les aux bons endroits.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Il nous faut aussi </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>des supports de tension</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Il y en a 4 également. Vas-y je te regarde !</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">On continue avec </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>le banc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, c'est la partie de devant.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Puis </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>les 2 jumelles</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, en symétrie sur chacun des côtés.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Et enfin </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>la planche</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Parfait ! La structure est en place ! Positionne maintenant </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>les 2 rouleaux</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, avant et arrière.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Maintenant occupons-nous du mécanisme avec d'abord </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>le coulisseau</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Et </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>la pédale</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>De nada, Salvador, ¡siempre estamos felices de poner fin a las acciones de Vladimir! Y luego nos hizo un agradable paseo en el corazón del Museo Dom Robert. Y gracias a ti mi amigo por habernos acompañado a lo largo de esta aventura. Nada hubiera sido posible sin tu ayuda. Antes de regresar, tengo una pequeña sorpresa para ti, ¡justo al lado del mostrador de información de arriba!</t>
   </si>
   <si>
@@ -2294,9 +1852,6 @@
   </si>
   <si>
     <t>Escalera</t>
-  </si>
-  <si>
-    <t>Símbolos</t>
   </si>
   <si>
     <t>Puente</t>
@@ -2345,8 +1900,691 @@
     </r>
   </si>
   <si>
+    <t>DOMéro d'Art (le canon à couleurs)</t>
+  </si>
+  <si>
+    <t>Ah, y una última cosa, si te atascas, siempre puedes pedirle ayuda a mi discípulo. Estará encantado de ayudarte, ¡sabe casi tanto como yo en el arte! Además, tan pronto como hayas completado con éxito un desafío, tendrás acceso a una hoja de trabajo haciendo clic en la bolsa del gran guerrero tigre.</t>
+  </si>
+  <si>
+    <t>« Ah et une dernière chose, si jamais vous êtes bloqués, vous pouvez toujours demander de l’aide à mon disciple. Il se fera une joie de vous aider, il s’y connaît presque autant que moi en art ! D’ailleurs, dès que vous aurez réussi un défi, vous aurez accès à une fiche d’oeuvre, en cliquant sur la sacoche du grand guerrier-tigre.» (Salvador)</t>
+  </si>
+  <si>
+    <t>One last thing, if you get stuck, you can always ask my disciple for help. He will be happy to help you, he knows Art almost as much as I do ! Besides, as soon as you have successfully completed a challenge, you will be able to access special informations for each masterpiece by clicking on the bag of the great tiger warrior. (Salvador)</t>
+  </si>
+  <si>
+    <t>Maurizio, this tapestry was savagely attacked and all the threads were removed! There is no color left ! I am devastated ! Jungle Bunch, you must help me ! Restore this work to its original beautiful appearance, por favor !</t>
+  </si>
+  <si>
+    <t>Allez on a presque fini. Ajoute maintenant des roues dentelées au mécanisme.</t>
+  </si>
+  <si>
+    <t>« Avant toute chose, commençons par monter le bâti. Il va donc nous falloir des matériaux. (Gilbert)</t>
+  </si>
+  <si>
+    <t>Lauds</t>
+  </si>
+  <si>
+    <t>Tapisserie de basse lisse, laine et coton</t>
+  </si>
+  <si>
+    <t>Carton de 1981, Tissage Atelier Goubely, Aubusson, 1991. 300x200cm</t>
+  </si>
+  <si>
+    <t>Que signifie le nom de l'œuvre "Laudes"?</t>
+  </si>
+  <si>
+    <t>Les laudes, c'est l'office du matin, la prière des moines au lever du jour, du mot latin qui signifie "louanges". Dom Robert était un moine et un artiste.</t>
+  </si>
+  <si>
+    <t>Mermaid Garden</t>
+  </si>
+  <si>
+    <t>Carton de 1961, premier tissage: atelier Goubely, Aubusson. Tissage Atelier Janine Dassonval à Montpezat de Quercy en 2009. 200x280cm</t>
+  </si>
+  <si>
+    <t>Quels sont les animaux que l'on retrouve dans cette tapisserie?</t>
+  </si>
+  <si>
+    <t>On peut observer 7 poissons, quelques crevettes, un petit poisson plat et 2 bernard-l'hermite dont un, si tu regardes bien, avec un chapeau plutôt étrange. Il s'agit de celui de l'évêque appelé la mitre, évoqué en coquillage dans cette tapisserie.</t>
+  </si>
+  <si>
+    <t>D'après toi, combien d'heures de tissage a-t-il fallu pour finir cette tapisserie?</t>
+  </si>
+  <si>
+    <t>Low warp loom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> telar de bajo lizo</t>
+  </si>
+  <si>
+    <t>Atelier Goubely</t>
+  </si>
+  <si>
+    <t>En usage jusqu'en 2005 par l'Atelier de la Beauze</t>
+  </si>
+  <si>
+    <t>Que signifie la tombée de métier?</t>
+  </si>
+  <si>
+    <t>The Creation of Man</t>
+  </si>
+  <si>
+    <t>Carton de 1946. Tissage Atelier de la Beauze, Aubusson, 2004. 400x340cm</t>
+  </si>
+  <si>
+    <t>La tapisserie a été acquise par l'Etat français puis offerte en 1954 par le Président René Coty à la reine de Pays-Bas. Quel magnifique cadeau!</t>
+  </si>
+  <si>
+    <t>Quels sont les chaussures du personnage au centre de la tapisserie?</t>
+  </si>
+  <si>
+    <t>Le personnage central représente Dieu en pantoufles. Il porte également le tablier bleu de travail des moines dont Dom Robert faisait partie , les moines d'En Calcat. Le monastère se situe à 10 min de Sorèze, sur la commune de Dourgne et il est toujours en fonctionnement.</t>
+  </si>
+  <si>
+    <t>Canards de Loul</t>
+  </si>
+  <si>
+    <t>133x142,5 cm  Carton de 1985. Tissage à l'atelier Goubely-La Beauze, Aubusson, 2003</t>
+  </si>
+  <si>
+    <t>Est-ce que tu peux reconnaître un des thèmes favoris de Dom Robert que l'on retrouve beaucoup dans ses oeuvres?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La basse-cour est un des thèmes de prédilection de Dom Robert. Ici, les canards forment une ronde au milieu d'un pré fleuri de coquelicots, d'ombelles et d'oseilles. Dom Robert s'est inspiré d'une ferme des alentours du monastère dans lequel il vivait, ce qui explique le nom de l'oeuvre. </t>
+  </si>
+  <si>
+    <t>A quel âge Dom Robert a confectionné cette oeuvre?</t>
+  </si>
+  <si>
+    <t>Smooth bass tapestry, wool and cotton</t>
+  </si>
+  <si>
+    <t>Cardboard from 1981, Weaving Atelier Goubely, Aubusson, 1991. 300x200cm</t>
+  </si>
+  <si>
+    <t>Quel est le nom de la fleur qui est représentée principalement dans cette tapisserie?</t>
+  </si>
+  <si>
+    <t>What is the name of the flower which is mainly represented in this tapestry?</t>
+  </si>
+  <si>
+    <t>What does the name of the work "Laudes" mean?</t>
+  </si>
+  <si>
+    <t>Lauds is the morning service, the prayer of the monks at dawn, from the Latin word which means "praise". Dom Robert was a monk and an artist.</t>
+  </si>
+  <si>
+    <t>Cardboard from 1961, first weaving: Goubely workshop, Aubusson. Weaving Atelier Janine Dassonval in Montpezat de Quercy in 2009. 200x280cm</t>
+  </si>
+  <si>
+    <t>What animals are found in this tapestry?</t>
+  </si>
+  <si>
+    <t>We can observe 7 fish, some shrimp, a small flat fish and 2 hermit crabs, one of which, if you look closely, with a rather strange hat. It is that of the bishop called the miter, mentioned in shell in this tapestry.</t>
+  </si>
+  <si>
+    <t>According to you, how many hours of weaving did it take to finish this tapestry?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour cette tapisserie de près de 6 mètres carrés et en raison de sa finesse, le tissage a pris plus de 1 200heures, temps auquel il faut ajouter 250 heures de couture. Soit près de 1 500 heures en tout et cela sur 7 mois.
+</t>
+  </si>
+  <si>
+    <t>For this tapestry of almost 6 square meters and due to its finesse, the weaving took more than 1,200 hours, to which must be added 250 hours of sewing. That is almost 1,500 hours in all and this over 7 months.</t>
+  </si>
+  <si>
+    <t>Goubely workshop</t>
+  </si>
+  <si>
+    <t>In use until 2005 by Atelier de la Beauze</t>
+  </si>
+  <si>
+    <t>Observe bien le métier à tisser et l'œuvre, d'après toi dans quel sens est tissée la tapisserie dite d'Aubusson?</t>
+  </si>
+  <si>
+    <t>Take a good look at the loom and the work, according to you in what sense is the Aubusson tapestry woven?</t>
+  </si>
+  <si>
+    <t>Les ombelles, fleurs des champs communes, remplissent l'espace, tissées dans une palette de bleus, verts, roses et blancs, rare chez Dom Robert. Chaque fleur présente un stade différents de floraison. Dès 1963, Dom Robert commence une série de tissages autour des ombellifères.</t>
+  </si>
+  <si>
+    <t>Umbels, flowers of common fields, fill the space, woven in a palette of blues, greens, pinks and whites, rare in Dom Robert. Each flower has a different stage of flowering. In 1963, Dom Robert began a series of weavings around the umbelliferae.</t>
+  </si>
+  <si>
+    <t>What does fallen from trade mean?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C'est l'expression employée pour désigner la phase finale de la création de la tapisserie. C'est le moment où l'on coupe les fils qui relie la tapisserie au métier à tisser et ainsi faire "tomber" la tapisserie, permettant pour la première fois de la découvrir dans son ensemble et dans à l'endroit. </t>
+  </si>
+  <si>
+    <t>It is the expression used to designate the final phase of the creation of the tapestry. It is the moment when the threads are cut which connects the tapestry to the loom and thus make the tapestry "fall", allowing for the first time to discover it as a whole and in place.</t>
+  </si>
+  <si>
+    <t>Low smooth tapestry, wool and cotton</t>
+  </si>
+  <si>
+    <t>Carton de 1941. Tissage Atelier Tabard, Aubusson, 1947, ex.5, 224x328 cm. Prêt de la Cité Internationale de la Tapisserie. Aubusson, n°inv.2006.7.1</t>
+  </si>
+  <si>
+    <t>Cardboard from 1941. Tissage Atelier Tabard, Aubusson, 1947, ex. 5, 224x328 cm. Loan from the Cité International de la Tapisserie. Aubusson, inv no.2006.7.1</t>
+  </si>
+  <si>
+    <t>It's funny how Dom Robert interpreted fauna and flora!</t>
+  </si>
+  <si>
+    <t>The tapestry includes the main themes that Dom Robert will later decline: farmyard animals, trees, flowers and butterflies. The ovoid shape containing the central scene will become one of the characteristics of his compositions.</t>
+  </si>
+  <si>
+    <t>Was the space built by another artist who inspired Dom Robert, Jean Lurçat?</t>
+  </si>
+  <si>
+    <t>Here, the palette proposed by Jean Lurçat is chosen: green-blue background and large mass of deep red on which the whites and yellows stand out. The red border and the inscription in the cartouche at the bottom right connect this work to the illumination and the medieval tapestry.</t>
+  </si>
+  <si>
+    <t>Cardboard from 1946. Weaving Atelier de la Beauze, Aubusson, 2004. 400x340cm</t>
+  </si>
+  <si>
+    <t>A qui a été offerte cette tapisserie?</t>
+  </si>
+  <si>
+    <t>Who was offered this tapestry?</t>
+  </si>
+  <si>
+    <t>The tapestry was acquired by the French State and then offered in 1954 by President René Coty to the Queen of the Netherlands. What a wonderful gift!</t>
+  </si>
+  <si>
+    <t>What are the character's shoes in the center of the tapestry?</t>
+  </si>
+  <si>
+    <t>The central figure represents God in slippers. He also wears the blue work apron of the monks of which Dom Robert was a member, the monks of En Calcat. The monastery is located 10 minutes from Sorèze, in the town of Dourgne and it is still in operation.</t>
+  </si>
+  <si>
+    <t>Loul ducks</t>
+  </si>
+  <si>
+    <t>133x142.5 cm Cardboard from 1985. Weaving at the Goubely-La Beauze workshop, Aubusson, 2003</t>
+  </si>
+  <si>
+    <t>Can you recognize one of Dom Robert's favorite themes that we find a lot in his works?</t>
+  </si>
+  <si>
+    <t>The farmyard is one of Dom Robert's favorite themes. Here, the ducks form a circle in the middle of a flowered meadow of poppies, umbels and sorrels. Dom Robert was inspired by a farm around the monastery in which he lived, which explains the name of the work.</t>
+  </si>
+  <si>
+    <t>At what age did Dom Robert make this work?</t>
+  </si>
+  <si>
+    <t>Dom Robert va avoir 80 ans quand il créé ce carton. Il prend encore volontier son vélo quand il fait beau pour aller dessiner la campagne environnante. Cette œuvre témoigne de sa parfaite maîtrise de la composition et de la technique.</t>
+  </si>
+  <si>
+    <t>Dom Robert will be 80 years old when he creates this box. He still willingly takes his bike when the weather is good to go and draw the surrounding countryside. This work demonstrates his perfect mastery of composition and technique.</t>
+  </si>
+  <si>
+    <t>Cartón de 1981, Tejiendo Atelier Goubely, Aubusson, 1991. 300x200cm</t>
+  </si>
+  <si>
+    <t>¿Cuál es el nombre de la flor que se representa principalmente en este tapiz?</t>
+  </si>
+  <si>
+    <t>Umbelas, flores de campos comunes, llenan el espacio, tejidas en una paleta de azules, verdes, rosas y blancos, poco común en Dom Robert. Cada flor tiene una etapa diferente de floración. En 1963, Dom Robert comenzó una serie de tejidos alrededor de las umbelíferas.</t>
+  </si>
+  <si>
+    <t>¿Qué significa el nombre de la obra "Laudes"?</t>
+  </si>
+  <si>
+    <t>Laudes es el servicio de la mañana, la oración de los monjes al amanecer, de la palabra latina que significa "alabanza". Dom Robert era monje y artista.</t>
+  </si>
+  <si>
+    <t>Jardín de sirenas</t>
+  </si>
+  <si>
+    <t>Cartón de 1961, primer tejido: taller Goubely, Aubusson. Taller de tejido Janine Dassonval en Montpezat de Quercy en 2009. 200x280cm</t>
+  </si>
+  <si>
+    <t>¿Qué animales se encuentran en este tapiz?</t>
+  </si>
+  <si>
+    <t>Podemos observar 7 peces, algunos camarones, un pequeño pez plano y 2 cangrejos ermitaños, uno de los cuales, si se mira de cerca, con un sombrero bastante extraño. Es el del obispo llamado la mitra, mencionado en concha en este tapiz.</t>
+  </si>
+  <si>
+    <t>Según usted, ¿cuántas horas de tejido tardó en terminar este tapiz?</t>
+  </si>
+  <si>
+    <t>Para este tapiz de casi 6 metros cuadrados y debido a su delicadeza, el tejido tomó más de 1.200 horas, a lo que hay que agregar 250 horas de costura. Es decir, casi 1.500 horas en total y más de 7 meses.</t>
+  </si>
+  <si>
+    <t>Taller Goubely</t>
+  </si>
+  <si>
+    <t>En uso hasta 2005 por Atelier de la Beauze</t>
+  </si>
+  <si>
+    <t>Observe bien el telar y el trabajo, según usted, ¿en qué sentido está tejido el tapiz de Aubusson?</t>
+  </si>
+  <si>
+    <t>¿Qué significa caer del comercio?</t>
+  </si>
+  <si>
+    <t>El tapiz de Aubusson se basa en una imagen preparada por un pintor de cartón. El tejido se realiza manualmente por un tejedor en el reverso del tapiz, utilizando lana teñida a mano: un proceso exigente con tiempos y costos de producción significativos. Catalogado como Patrimonio de la Humanidad por la UNESCO desde 2009, los tapices de Aubusson son un punto de referencia en todo el mundo.</t>
+  </si>
+  <si>
+    <t>Aubusson's tapestry is based on an image prepared by a cardboard painter. The weaving is carried out manually by a weaver on the reverse side of the tapestry, using hand-dyed wool: a demanding process with significant production times and cost. Listed as a UNESCO World Heritage Site since 2009, Aubusson tapestries are a benchmark worldwide.</t>
+  </si>
+  <si>
+    <t>Es la expresión utilizada para designar la fase final de la creación del tapiz. Es el momento en que se cortan los hilos que conectan el tapiz con el telar y hacen que el tapiz se "caiga", permitiendo por primera vez descubrirlo como un todo y en su lugar.</t>
+  </si>
+  <si>
+    <t>Verano</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Tapiz bajo liso, lana y algodón.</t>
+  </si>
+  <si>
+    <t>Cartón de 1941. Tissage Atelier Tabard, Aubusson, 1947, ej. 5, 224x328 cm. Préstamo de la Cité International de la Tapisserie. Aubusson, inv.2006.7.1</t>
+  </si>
+  <si>
+    <t>¡Es curioso cómo Dom Robert interpretó la fauna y la flora!</t>
+  </si>
+  <si>
+    <t>El tapiz incluye los temas principales que Dom Robert rechazará más tarde: animales de granja, árboles, flores y mariposas. La forma ovoide que contiene la escena central se convertirá en una de las características de sus composiciones.</t>
+  </si>
+  <si>
+    <t>¿El espacio fue construido por otro artista que inspiró a Dom Robert, Jean Lurçat?</t>
+  </si>
+  <si>
+    <t>Aquí se elige la paleta propuesta por Jean Lurçat: fondo verde-azul y gran masa de color rojo intenso sobre el que destacan los blancos y amarillos. El borde rojo y la inscripción en el cartucho en la parte inferior derecha conectan esta obra con la iluminación y el tapiz medieval.</t>
+  </si>
+  <si>
+    <t>La tapisserie d’Aubusson s’appuie sur une image préparée par un peintre cartonnier. Le tissage est effectué manuellement par un lissier sur l’envers de la tapisserie, à partir de laines teintes artisanalement : un procédé exigeant au coût important.  Classées au patrimoine mondial de l'UNESCO depuis 2009, les tapisseries d’Aubusson sont une référence dans le monde entier.</t>
+  </si>
+  <si>
+    <t>La creacion del hombre</t>
+  </si>
+  <si>
+    <t>Cartón de 1946. Tejiendo Atelier de la Beauze, Aubusson, 2004. 400x340cm.</t>
+  </si>
+  <si>
+    <t>¿A quién se le ofreció este tapiz?</t>
+  </si>
+  <si>
+    <t>El tapiz fue adquirido por el Estado francés y luego ofrecido en 1954 por el presidente René Coty a la reina de los Países Bajos. ¡Qué maravilloso regalo!</t>
+  </si>
+  <si>
+    <t>¿Cuáles son los zapatos del personaje en el centro del tapiz?</t>
+  </si>
+  <si>
+    <t>La figura central representa a Dios en zapatillas. También usa el delantal azul de trabajo de los monjes de los cuales Dom Robert era miembro, los monjes de En Calcat. El monasterio se encuentra a 10 minutos de Sorèze, en la ciudad de Dourgne y todavía está en funcionamiento.</t>
+  </si>
+  <si>
+    <t>Patos del alma</t>
+  </si>
+  <si>
+    <t>Tapiz bajo liso, lana y algodón</t>
+  </si>
+  <si>
+    <t>Cartón de 133x142,5 cm de 1985. Tejido en el taller Goubely-La Beauze, Aubusson, 2003</t>
+  </si>
+  <si>
+    <t>¿Puedes reconocer uno de los temas favoritos de Dom Robert que encontramos mucho en sus obras?</t>
+  </si>
+  <si>
+    <t>El corral es uno de los temas favoritos de Dom Robert. Aquí, los patos forman un círculo en medio de un prado florecido de amapolas, umbelas y acederas. Dom Robert se inspiró en una granja alrededor del monasterio en el que vivía, que explica el nombre de la obra.</t>
+  </si>
+  <si>
+    <t>¿A qué edad hizo Dom Robert hacer que esto funcionara?</t>
+  </si>
+  <si>
+    <t>Dom Robert tendrá 80 años cuando cree esta caja. Todavía está dispuesto a tomar su bicicleta cuando hace buen tiempo y dibujar el campo circundante. Este trabajo demuestra su perfecto dominio de la composición y la técnica.</t>
+  </si>
+  <si>
+    <t>Et maintenant retrouve une Gorgone pourpre.</t>
+  </si>
+  <si>
+    <t>Il nous faut désormais une Etoile de mer rouge...</t>
+  </si>
+  <si>
+    <t>And now find a purple Gorgon.</t>
+  </si>
+  <si>
+    <t>We now need a red starfish ...</t>
+  </si>
+  <si>
+    <t>Il faudrait maintenant trouver une Rascasse brune...</t>
+  </si>
+  <si>
+    <t>Et un Ver de mer tubicole...</t>
+  </si>
+  <si>
+    <t>Find a Pink Shrimp ...</t>
+  </si>
+  <si>
+    <t>Now we have to find a brown lionfish ...</t>
+  </si>
+  <si>
+    <t>Peux-tu trouver un Concombre de mer…</t>
+  </si>
+  <si>
+    <t>Can you find a Sea Cucumber …</t>
+  </si>
+  <si>
+    <t>And a tubic worm ...</t>
+  </si>
+  <si>
+    <t>Tienes que encontrar la representación de un coral rojo.</t>
+  </si>
+  <si>
+    <t>You have to find the representation of a Red Coral.</t>
+  </si>
+  <si>
+    <t>« Il faut que tu trouves la représentation d’un Corail rouge. » (Maurice)</t>
+  </si>
+  <si>
+    <t>Y ahora encuentra una Gorgona púrpura.</t>
+  </si>
+  <si>
+    <t>Ahora necesitamos una estrella de mar roja ...</t>
+  </si>
+  <si>
+    <t>Trouve une Crevette rose…</t>
+  </si>
+  <si>
+    <t>Encuentra un camarón rosado ...</t>
+  </si>
+  <si>
+    <t>Ahora tenemos que encontrar un pez león marrón ...</t>
+  </si>
+  <si>
+    <t>¿Puedes encontrar un pepino de mar ...</t>
+  </si>
+  <si>
+    <t>Y un gusano tubico ...</t>
+  </si>
+  <si>
+    <t>Puis un Pagure dans une anémone manteau…</t>
+  </si>
+  <si>
+    <t>Then a Pagure in a mantle anemone…</t>
+  </si>
+  <si>
+    <t>Luego una Pagure en una anémona de manto ...</t>
+  </si>
+  <si>
+    <t>Allez, plus que deux ! Cette fois-ci, il faut un Crabe dans une anémone parasite…</t>
+  </si>
+  <si>
+    <t>¡Vamos, más de dos! Esta vez, necesitas un cangrejo en una anémona parásita ...</t>
+  </si>
+  <si>
+    <t>Come on, only two left ! This time, you need a Crab in a parasitic anemone ...</t>
+  </si>
+  <si>
+    <t>Et pour finir, retrouve la Blennie ocelée !</t>
+  </si>
+  <si>
+    <t>Y finalmente, ¡encuentra a Blennie ocelada!</t>
+  </si>
+  <si>
+    <t>And finally, find the ocellated Blennie!</t>
+  </si>
+  <si>
+    <t>« OK Gilbert, c’est super, on va tester ça. Identifions une oeuvre et voyons si ça marche. » (Maurice)</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Ah sí, ¡gracias por recordármelo Junior! ¡Antes de partir, no olvides recoger tu foto en la recepción del museo! Vamos, amigos, vamos a la guarida. Quizás alguien nos esté esperando con una nueva misión. Aces of the Jungle: ¡AL RESCATE! (Maurice) Ah sí, ¡gracias por recordármelo Junior! ¡Antes de partir, no se olvide de recoger su fotografía en la recepción del museo! Vamos, amigos, volvamos a la Guarida. Quizás alguien nos esté esperando con una nueva misión. </t>
+      <t xml:space="preserve">« Ah Maurice ! C’est l’occasion idéale pour vous présenter ma toute dernière invention : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l’Interpréteur Pour Algorithmes Transposables de Technologie Expérimentale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ou plus simplement l’</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i.PATTE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ! Avec cet outil, nous allons pouvoir scanner les oeuvres directement et mettre en lumière les éventuels problèmes » (Gilbert).</t>
+    </r>
+  </si>
+  <si>
+    <t>Analyse de l'oeuvre en cours</t>
+  </si>
+  <si>
+    <t>« Parfait, ça marche ! Ton i.PATTE fonctionne Gilbert. On a réussi à scanner la première oeuvre grâce à l'indice laissé par Salvador. » (Maurice)</t>
+  </si>
+  <si>
+    <t>Le canon à couleurs</t>
+  </si>
+  <si>
+    <t>Interactions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">« Ah oui, merci de me le rappeler Junior ! Avant de partir, n’oublie pas de récupérer ta photo à l’accueil du musée en restituant l'I.PATTE ! Allez, en route les amis, on rentre au Repaire. Quelqu’un nous y attend peut-être avec une nouvelle mission. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Les As de la Jungle : A LA RESCOUSSE ! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>» (Maurice)</t>
+    </r>
+  </si>
+  <si>
+    <t>Thank you so much Jungle Bunch ! To help you, let me tell you about the magnificent works that have been vandalized! I marked the locations of the interactions on the museum map with an image of Maurizio.</t>
+  </si>
+  <si>
+    <t>« Merci les As ! Pour vous aider, laissez-moi vous indiquer  les magnifiques oeuvres qui ont été vandalisées ! Je vous ai marqué les emplacements des interactions sur le plan du musée avec une image de Maurizio. » (Salvador)</t>
+  </si>
+  <si>
+    <r>
+      <t>Ah Maurice! This is the perfect opportunity to present my latest invention: the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Interpretor Pad for an Advanced Wild Nature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, or more simply the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">i.PAWN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>! With this tool, we will be able to scan the works directly and highlight any problems.</t>
+    </r>
+  </si>
+  <si>
+    <t>« L’i.PATTE, comme je viens de le dire, va nous permettre d’analyser les oeuvres et de les réparer. Nous devons trouver les images laissées par Salvador pour savoir quelles oeuvres ont été modifiées, en appuyant sur ce bouton pour les scanner. Pour nous rendre au bon endroit, nous pouvons consulter le plan du musée. En appuyant sur ce bouton, nous ouvrons le menu Paramètres, très utile pour activer ou non le son mais aussi choisir une langue. Quant à ce bouton, il permet de revenir au tout début de l’aventure ou de quitter une épreuve. Bon, je crois que j’ai fait le tour.» (Gilbert)</t>
+  </si>
+  <si>
+    <t>The i.PAWN, as I just said, will allow us to analyze the masterpieces and repair them. We have to find the images left by Salvador to find out which works have been modified, by pressing this button to scan them. To get to the right place, we can consult the map of the museum. By pressing this button, we open the Settings menu, very useful in order to activate or not the sound but also to change language. As for this button, it allows you to return to the very beginning of the adventure or to leave an event. Well, I think I went around. (Gilbert)</t>
+  </si>
+  <si>
+    <t>OK Gilbert, that's great, we're going to test this. Let's identify a work and see if it works.</t>
+  </si>
+  <si>
+    <t>Masterpiece analysis in progress</t>
+  </si>
+  <si>
+    <t>Perfect, your i.PAWN is working Gilbert ! We managed to scan the first work thanks to the clue left by Salvador.</t>
+  </si>
+  <si>
+    <t>Interacciones</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"Ah yes, thank you for reminding me Junior! Before leaving, don't forget to collect your photo at the museum reception by returning the I.PAWN! Come on, friends, let's go back to the Den. Maybe someone is waiting for us with a new mission. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jungle Bunch : TO THE RESCUE !</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ah sí, ¡gracias por recordármelo Junior! Antes de partir, ¡no olvides recoger tu fotografía en la recepción del museo devolviendo el I.PAWN!  Vamos, amigos, vamos a la guarida. Quizás alguien nos esté esperando con una nueva misión. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>La Panda de la Selva : ¡AL RESCATE!</t>
+    </r>
+  </si>
+  <si>
+    <t>Gracias amigos ! ¡Para ayudarlo, permítame mostrarle las magníficas obras que han sido destrozadas ! Marqué las ubicaciones de las interacciones en el mapa del museo con una imagen de Maurizio.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">¡Ah, Maurice! Esta es la oportunidad perfecta para presentar mi último invento: el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Interpretor Pad for an Advanced Wild Nature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, o más simplemente el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">i.PAWN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>! Con esta herramienta, podremos escanear los trabajos directamente y resaltar cualquier problema.</t>
+    </r>
+  </si>
+  <si>
+    <t>El I.PAWN, como acabo de decir, nos permitirá analizar los trabajos y repararlos. Tenemos que encontrar las imágenes dejadas por Salvador para averiguar qué obras se han modificado, presionando este botón para escanearlas. Para llegar al lugar correcto, podemos consultar el mapa del museo. Al presionar este botón, abrimos el menú Configuración, muy útil para activar o no el sonido, pero también para elegir un idioma. En cuanto a este botón, le permite volver al comienzo de la aventura o abandonar un evento. Bueno, creo que di la vuelta.</t>
+  </si>
+  <si>
+    <t>OK Gilbert, es genial, vamos a probar eso. Identifiquemos un trabajo y veamos si funciona.</t>
+  </si>
+  <si>
+    <t>Análisis del trabajo en progreso</t>
+  </si>
+  <si>
+    <t>¡Perfecto, funciona! Tu i.PAWN está funcionando Gilbert. Logramos escanear el primer trabajo gracias a la pista que dejó Salvador.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ouvre la boîte à outils et choisi </t>
     </r>
     <r>
       <rPr>
@@ -2357,441 +2595,209 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>La Panda de la Selva : ¡AL RESCATE!</t>
+      <t>les 4 pieds</t>
     </r>
-  </si>
-  <si>
-    <t>DOMéro d'Art (le canon à couleurs)</t>
-  </si>
-  <si>
-    <t>Thank you so much Jungle Bunch ! To help you, let me show you the magnificent masterpieces that have been vandalized, on the museum plan! I've marked the locations with symbols for you. "</t>
-  </si>
-  <si>
-    <t>Ah, y una última cosa, si te atascas, siempre puedes pedirle ayuda a mi discípulo. Estará encantado de ayudarte, ¡sabe casi tanto como yo en el arte! Además, tan pronto como hayas completado con éxito un desafío, tendrás acceso a una hoja de trabajo haciendo clic en la bolsa del gran guerrero tigre.</t>
-  </si>
-  <si>
-    <t>« Ah et une dernière chose, si jamais vous êtes bloqués, vous pouvez toujours demander de l’aide à mon disciple. Il se fera une joie de vous aider, il s’y connaît presque autant que moi en art ! D’ailleurs, dès que vous aurez réussi un défi, vous aurez accès à une fiche d’oeuvre, en cliquant sur la sacoche du grand guerrier-tigre.» (Salvador)</t>
-  </si>
-  <si>
-    <t>One last thing, if you get stuck, you can always ask my disciple for help. He will be happy to help you, he knows Art almost as much as I do ! Besides, as soon as you have successfully completed a challenge, you will be able to access special informations for each masterpiece by clicking on the bag of the great tiger warrior. (Salvador)</t>
-  </si>
-  <si>
-    <t>Maurizio, this tapestry was savagely attacked and all the threads were removed! There is no color left ! I am devastated ! Jungle Bunch, you must help me ! Restore this work to its original beautiful appearance, por favor !</t>
-  </si>
-  <si>
-    <t>Allez on a presque fini. Ajoute maintenant des roues dentelées au mécanisme.</t>
-  </si>
-  <si>
-    <t>« Avant toute chose, commençons par monter le bâti. Il va donc nous falloir des matériaux. (Gilbert)</t>
-  </si>
-  <si>
-    <t>Lauds</t>
-  </si>
-  <si>
-    <t>Tapisserie de basse lisse, laine et coton</t>
-  </si>
-  <si>
-    <t>Carton de 1981, Tissage Atelier Goubely, Aubusson, 1991. 300x200cm</t>
-  </si>
-  <si>
-    <t>Que signifie le nom de l'œuvre "Laudes"?</t>
-  </si>
-  <si>
-    <t>Les laudes, c'est l'office du matin, la prière des moines au lever du jour, du mot latin qui signifie "louanges". Dom Robert était un moine et un artiste.</t>
-  </si>
-  <si>
-    <t>Mermaid Garden</t>
-  </si>
-  <si>
-    <t>Carton de 1961, premier tissage: atelier Goubely, Aubusson. Tissage Atelier Janine Dassonval à Montpezat de Quercy en 2009. 200x280cm</t>
-  </si>
-  <si>
-    <t>Quels sont les animaux que l'on retrouve dans cette tapisserie?</t>
-  </si>
-  <si>
-    <t>On peut observer 7 poissons, quelques crevettes, un petit poisson plat et 2 bernard-l'hermite dont un, si tu regardes bien, avec un chapeau plutôt étrange. Il s'agit de celui de l'évêque appelé la mitre, évoqué en coquillage dans cette tapisserie.</t>
-  </si>
-  <si>
-    <t>D'après toi, combien d'heures de tissage a-t-il fallu pour finir cette tapisserie?</t>
-  </si>
-  <si>
-    <t>Low warp loom</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> telar de bajo lizo</t>
-  </si>
-  <si>
-    <t>Atelier Goubely</t>
-  </si>
-  <si>
-    <t>En usage jusqu'en 2005 par l'Atelier de la Beauze</t>
-  </si>
-  <si>
-    <t>Que signifie la tombée de métier?</t>
-  </si>
-  <si>
-    <t>The Creation of Man</t>
-  </si>
-  <si>
-    <t>Carton de 1946. Tissage Atelier de la Beauze, Aubusson, 2004. 400x340cm</t>
-  </si>
-  <si>
-    <t>La tapisserie a été acquise par l'Etat français puis offerte en 1954 par le Président René Coty à la reine de Pays-Bas. Quel magnifique cadeau!</t>
-  </si>
-  <si>
-    <t>Quels sont les chaussures du personnage au centre de la tapisserie?</t>
-  </si>
-  <si>
-    <t>Le personnage central représente Dieu en pantoufles. Il porte également le tablier bleu de travail des moines dont Dom Robert faisait partie , les moines d'En Calcat. Le monastère se situe à 10 min de Sorèze, sur la commune de Dourgne et il est toujours en fonctionnement.</t>
-  </si>
-  <si>
-    <t>Canards de Loul</t>
-  </si>
-  <si>
-    <t>133x142,5 cm  Carton de 1985. Tissage à l'atelier Goubely-La Beauze, Aubusson, 2003</t>
-  </si>
-  <si>
-    <t>Est-ce que tu peux reconnaître un des thèmes favoris de Dom Robert que l'on retrouve beaucoup dans ses oeuvres?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La basse-cour est un des thèmes de prédilection de Dom Robert. Ici, les canards forment une ronde au milieu d'un pré fleuri de coquelicots, d'ombelles et d'oseilles. Dom Robert s'est inspiré d'une ferme des alentours du monastère dans lequel il vivait, ce qui explique le nom de l'oeuvre. </t>
-  </si>
-  <si>
-    <t>A quel âge Dom Robert a confectionné cette oeuvre?</t>
-  </si>
-  <si>
-    <t>Smooth bass tapestry, wool and cotton</t>
-  </si>
-  <si>
-    <t>Cardboard from 1981, Weaving Atelier Goubely, Aubusson, 1991. 300x200cm</t>
-  </si>
-  <si>
-    <t>Quel est le nom de la fleur qui est représentée principalement dans cette tapisserie?</t>
-  </si>
-  <si>
-    <t>What is the name of the flower which is mainly represented in this tapestry?</t>
-  </si>
-  <si>
-    <t>What does the name of the work "Laudes" mean?</t>
-  </si>
-  <si>
-    <t>Lauds is the morning service, the prayer of the monks at dawn, from the Latin word which means "praise". Dom Robert was a monk and an artist.</t>
-  </si>
-  <si>
-    <t>Cardboard from 1961, first weaving: Goubely workshop, Aubusson. Weaving Atelier Janine Dassonval in Montpezat de Quercy in 2009. 200x280cm</t>
-  </si>
-  <si>
-    <t>What animals are found in this tapestry?</t>
-  </si>
-  <si>
-    <t>We can observe 7 fish, some shrimp, a small flat fish and 2 hermit crabs, one of which, if you look closely, with a rather strange hat. It is that of the bishop called the miter, mentioned in shell in this tapestry.</t>
-  </si>
-  <si>
-    <t>According to you, how many hours of weaving did it take to finish this tapestry?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pour cette tapisserie de près de 6 mètres carrés et en raison de sa finesse, le tissage a pris plus de 1 200heures, temps auquel il faut ajouter 250 heures de couture. Soit près de 1 500 heures en tout et cela sur 7 mois.
-</t>
-  </si>
-  <si>
-    <t>For this tapestry of almost 6 square meters and due to its finesse, the weaving took more than 1,200 hours, to which must be added 250 hours of sewing. That is almost 1,500 hours in all and this over 7 months.</t>
-  </si>
-  <si>
-    <t>Goubely workshop</t>
-  </si>
-  <si>
-    <t>In use until 2005 by Atelier de la Beauze</t>
-  </si>
-  <si>
-    <t>Observe bien le métier à tisser et l'œuvre, d'après toi dans quel sens est tissée la tapisserie dite d'Aubusson?</t>
-  </si>
-  <si>
-    <t>Take a good look at the loom and the work, according to you in what sense is the Aubusson tapestry woven?</t>
-  </si>
-  <si>
-    <t>Les ombelles, fleurs des champs communes, remplissent l'espace, tissées dans une palette de bleus, verts, roses et blancs, rare chez Dom Robert. Chaque fleur présente un stade différents de floraison. Dès 1963, Dom Robert commence une série de tissages autour des ombellifères.</t>
-  </si>
-  <si>
-    <t>Umbels, flowers of common fields, fill the space, woven in a palette of blues, greens, pinks and whites, rare in Dom Robert. Each flower has a different stage of flowering. In 1963, Dom Robert began a series of weavings around the umbelliferae.</t>
-  </si>
-  <si>
-    <t>What does fallen from trade mean?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C'est l'expression employée pour désigner la phase finale de la création de la tapisserie. C'est le moment où l'on coupe les fils qui relie la tapisserie au métier à tisser et ainsi faire "tomber" la tapisserie, permettant pour la première fois de la découvrir dans son ensemble et dans à l'endroit. </t>
-  </si>
-  <si>
-    <t>It is the expression used to designate the final phase of the creation of the tapestry. It is the moment when the threads are cut which connects the tapestry to the loom and thus make the tapestry "fall", allowing for the first time to discover it as a whole and in place.</t>
-  </si>
-  <si>
-    <t>Low smooth tapestry, wool and cotton</t>
-  </si>
-  <si>
-    <t>Carton de 1941. Tissage Atelier Tabard, Aubusson, 1947, ex.5, 224x328 cm. Prêt de la Cité Internationale de la Tapisserie. Aubusson, n°inv.2006.7.1</t>
-  </si>
-  <si>
-    <t>Cardboard from 1941. Tissage Atelier Tabard, Aubusson, 1947, ex. 5, 224x328 cm. Loan from the Cité International de la Tapisserie. Aubusson, inv no.2006.7.1</t>
-  </si>
-  <si>
-    <t>It's funny how Dom Robert interpreted fauna and flora!</t>
-  </si>
-  <si>
-    <t>The tapestry includes the main themes that Dom Robert will later decline: farmyard animals, trees, flowers and butterflies. The ovoid shape containing the central scene will become one of the characteristics of his compositions.</t>
-  </si>
-  <si>
-    <t>Was the space built by another artist who inspired Dom Robert, Jean Lurçat?</t>
-  </si>
-  <si>
-    <t>Here, the palette proposed by Jean Lurçat is chosen: green-blue background and large mass of deep red on which the whites and yellows stand out. The red border and the inscription in the cartouche at the bottom right connect this work to the illumination and the medieval tapestry.</t>
-  </si>
-  <si>
-    <t>Cardboard from 1946. Weaving Atelier de la Beauze, Aubusson, 2004. 400x340cm</t>
-  </si>
-  <si>
-    <t>A qui a été offerte cette tapisserie?</t>
-  </si>
-  <si>
-    <t>Who was offered this tapestry?</t>
-  </si>
-  <si>
-    <t>The tapestry was acquired by the French State and then offered in 1954 by President René Coty to the Queen of the Netherlands. What a wonderful gift!</t>
-  </si>
-  <si>
-    <t>What are the character's shoes in the center of the tapestry?</t>
-  </si>
-  <si>
-    <t>The central figure represents God in slippers. He also wears the blue work apron of the monks of which Dom Robert was a member, the monks of En Calcat. The monastery is located 10 minutes from Sorèze, in the town of Dourgne and it is still in operation.</t>
-  </si>
-  <si>
-    <t>Loul ducks</t>
-  </si>
-  <si>
-    <t>133x142.5 cm Cardboard from 1985. Weaving at the Goubely-La Beauze workshop, Aubusson, 2003</t>
-  </si>
-  <si>
-    <t>Can you recognize one of Dom Robert's favorite themes that we find a lot in his works?</t>
-  </si>
-  <si>
-    <t>The farmyard is one of Dom Robert's favorite themes. Here, the ducks form a circle in the middle of a flowered meadow of poppies, umbels and sorrels. Dom Robert was inspired by a farm around the monastery in which he lived, which explains the name of the work.</t>
-  </si>
-  <si>
-    <t>At what age did Dom Robert make this work?</t>
-  </si>
-  <si>
-    <t>Dom Robert va avoir 80 ans quand il créé ce carton. Il prend encore volontier son vélo quand il fait beau pour aller dessiner la campagne environnante. Cette œuvre témoigne de sa parfaite maîtrise de la composition et de la technique.</t>
-  </si>
-  <si>
-    <t>Dom Robert will be 80 years old when he creates this box. He still willingly takes his bike when the weather is good to go and draw the surrounding countryside. This work demonstrates his perfect mastery of composition and technique.</t>
-  </si>
-  <si>
-    <t>Cartón de 1981, Tejiendo Atelier Goubely, Aubusson, 1991. 300x200cm</t>
-  </si>
-  <si>
-    <t>¿Cuál es el nombre de la flor que se representa principalmente en este tapiz?</t>
-  </si>
-  <si>
-    <t>Umbelas, flores de campos comunes, llenan el espacio, tejidas en una paleta de azules, verdes, rosas y blancos, poco común en Dom Robert. Cada flor tiene una etapa diferente de floración. En 1963, Dom Robert comenzó una serie de tejidos alrededor de las umbelíferas.</t>
-  </si>
-  <si>
-    <t>¿Qué significa el nombre de la obra "Laudes"?</t>
-  </si>
-  <si>
-    <t>Laudes es el servicio de la mañana, la oración de los monjes al amanecer, de la palabra latina que significa "alabanza". Dom Robert era monje y artista.</t>
-  </si>
-  <si>
-    <t>Jardín de sirenas</t>
-  </si>
-  <si>
-    <t>Cartón de 1961, primer tejido: taller Goubely, Aubusson. Taller de tejido Janine Dassonval en Montpezat de Quercy en 2009. 200x280cm</t>
-  </si>
-  <si>
-    <t>¿Qué animales se encuentran en este tapiz?</t>
-  </si>
-  <si>
-    <t>Podemos observar 7 peces, algunos camarones, un pequeño pez plano y 2 cangrejos ermitaños, uno de los cuales, si se mira de cerca, con un sombrero bastante extraño. Es el del obispo llamado la mitra, mencionado en concha en este tapiz.</t>
-  </si>
-  <si>
-    <t>Según usted, ¿cuántas horas de tejido tardó en terminar este tapiz?</t>
-  </si>
-  <si>
-    <t>Para este tapiz de casi 6 metros cuadrados y debido a su delicadeza, el tejido tomó más de 1.200 horas, a lo que hay que agregar 250 horas de costura. Es decir, casi 1.500 horas en total y más de 7 meses.</t>
-  </si>
-  <si>
-    <t>Taller Goubely</t>
-  </si>
-  <si>
-    <t>En uso hasta 2005 por Atelier de la Beauze</t>
-  </si>
-  <si>
-    <t>Observe bien el telar y el trabajo, según usted, ¿en qué sentido está tejido el tapiz de Aubusson?</t>
-  </si>
-  <si>
-    <t>¿Qué significa caer del comercio?</t>
-  </si>
-  <si>
-    <t>El tapiz de Aubusson se basa en una imagen preparada por un pintor de cartón. El tejido se realiza manualmente por un tejedor en el reverso del tapiz, utilizando lana teñida a mano: un proceso exigente con tiempos y costos de producción significativos. Catalogado como Patrimonio de la Humanidad por la UNESCO desde 2009, los tapices de Aubusson son un punto de referencia en todo el mundo.</t>
-  </si>
-  <si>
-    <t>Aubusson's tapestry is based on an image prepared by a cardboard painter. The weaving is carried out manually by a weaver on the reverse side of the tapestry, using hand-dyed wool: a demanding process with significant production times and cost. Listed as a UNESCO World Heritage Site since 2009, Aubusson tapestries are a benchmark worldwide.</t>
-  </si>
-  <si>
-    <t>Es la expresión utilizada para designar la fase final de la creación del tapiz. Es el momento en que se cortan los hilos que conectan el tapiz con el telar y hacen que el tapiz se "caiga", permitiendo por primera vez descubrirlo como un todo y en su lugar.</t>
-  </si>
-  <si>
-    <t>Verano</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Tapiz bajo liso, lana y algodón.</t>
-  </si>
-  <si>
-    <t>Cartón de 1941. Tissage Atelier Tabard, Aubusson, 1947, ej. 5, 224x328 cm. Préstamo de la Cité International de la Tapisserie. Aubusson, inv.2006.7.1</t>
-  </si>
-  <si>
-    <t>¡Es curioso cómo Dom Robert interpretó la fauna y la flora!</t>
-  </si>
-  <si>
-    <t>El tapiz incluye los temas principales que Dom Robert rechazará más tarde: animales de granja, árboles, flores y mariposas. La forma ovoide que contiene la escena central se convertirá en una de las características de sus composiciones.</t>
-  </si>
-  <si>
-    <t>¿El espacio fue construido por otro artista que inspiró a Dom Robert, Jean Lurçat?</t>
-  </si>
-  <si>
-    <t>Aquí se elige la paleta propuesta por Jean Lurçat: fondo verde-azul y gran masa de color rojo intenso sobre el que destacan los blancos y amarillos. El borde rojo y la inscripción en el cartucho en la parte inferior derecha conectan esta obra con la iluminación y el tapiz medieval.</t>
-  </si>
-  <si>
-    <t>La tapisserie d’Aubusson s’appuie sur une image préparée par un peintre cartonnier. Le tissage est effectué manuellement par un lissier sur l’envers de la tapisserie, à partir de laines teintes artisanalement : un procédé exigeant au coût important.  Classées au patrimoine mondial de l'UNESCO depuis 2009, les tapisseries d’Aubusson sont une référence dans le monde entier.</t>
-  </si>
-  <si>
-    <t>La creacion del hombre</t>
-  </si>
-  <si>
-    <t>Cartón de 1946. Tejiendo Atelier de la Beauze, Aubusson, 2004. 400x340cm.</t>
-  </si>
-  <si>
-    <t>¿A quién se le ofreció este tapiz?</t>
-  </si>
-  <si>
-    <t>El tapiz fue adquirido por el Estado francés y luego ofrecido en 1954 por el presidente René Coty a la reina de los Países Bajos. ¡Qué maravilloso regalo!</t>
-  </si>
-  <si>
-    <t>¿Cuáles son los zapatos del personaje en el centro del tapiz?</t>
-  </si>
-  <si>
-    <t>La figura central representa a Dios en zapatillas. También usa el delantal azul de trabajo de los monjes de los cuales Dom Robert era miembro, los monjes de En Calcat. El monasterio se encuentra a 10 minutos de Sorèze, en la ciudad de Dourgne y todavía está en funcionamiento.</t>
-  </si>
-  <si>
-    <t>Patos del alma</t>
-  </si>
-  <si>
-    <t>Tapiz bajo liso, lana y algodón</t>
-  </si>
-  <si>
-    <t>Cartón de 133x142,5 cm de 1985. Tejido en el taller Goubely-La Beauze, Aubusson, 2003</t>
-  </si>
-  <si>
-    <t>¿Puedes reconocer uno de los temas favoritos de Dom Robert que encontramos mucho en sus obras?</t>
-  </si>
-  <si>
-    <t>El corral es uno de los temas favoritos de Dom Robert. Aquí, los patos forman un círculo en medio de un prado florecido de amapolas, umbelas y acederas. Dom Robert se inspiró en una granja alrededor del monasterio en el que vivía, que explica el nombre de la obra.</t>
-  </si>
-  <si>
-    <t>¿A qué edad hizo Dom Robert hacer que esto funcionara?</t>
-  </si>
-  <si>
-    <t>Dom Robert tendrá 80 años cuando cree esta caja. Todavía está dispuesto a tomar su bicicleta cuando hace buen tiempo y dibujar el campo circundante. Este trabajo demuestra su perfecto dominio de la composición y la técnica.</t>
-  </si>
-  <si>
-    <t>Et maintenant retrouve une Gorgone pourpre.</t>
-  </si>
-  <si>
-    <t>Il nous faut désormais une Etoile de mer rouge...</t>
-  </si>
-  <si>
-    <t>And now find a purple Gorgon.</t>
-  </si>
-  <si>
-    <t>We now need a red starfish ...</t>
-  </si>
-  <si>
-    <t>Il faudrait maintenant trouver une Rascasse brune...</t>
-  </si>
-  <si>
-    <t>Et un Ver de mer tubicole...</t>
-  </si>
-  <si>
-    <t>Find a Pink Shrimp ...</t>
-  </si>
-  <si>
-    <t>Now we have to find a brown lionfish ...</t>
-  </si>
-  <si>
-    <t>Peux-tu trouver un Concombre de mer…</t>
-  </si>
-  <si>
-    <t>Can you find a Sea Cucumber …</t>
-  </si>
-  <si>
-    <t>And a tubic worm ...</t>
-  </si>
-  <si>
-    <t>Tienes que encontrar la representación de un coral rojo.</t>
-  </si>
-  <si>
-    <t>You have to find the representation of a Red Coral.</t>
-  </si>
-  <si>
-    <t>« Il faut que tu trouves la représentation d’un Corail rouge. » (Maurice)</t>
-  </si>
-  <si>
-    <t>Y ahora encuentra una Gorgona púrpura.</t>
-  </si>
-  <si>
-    <t>Ahora necesitamos una estrella de mar roja ...</t>
-  </si>
-  <si>
-    <t>Trouve une Crevette rose…</t>
-  </si>
-  <si>
-    <t>Encuentra un camarón rosado ...</t>
-  </si>
-  <si>
-    <t>Ahora tenemos que encontrar un pez león marrón ...</t>
-  </si>
-  <si>
-    <t>¿Puedes encontrar un pepino de mar ...</t>
-  </si>
-  <si>
-    <t>Y un gusano tubico ...</t>
-  </si>
-  <si>
-    <t>Puis un Pagure dans une anémone manteau…</t>
-  </si>
-  <si>
-    <t>Then a Pagure in a mantle anemone…</t>
-  </si>
-  <si>
-    <t>Luego una Pagure en una anémona de manto ...</t>
-  </si>
-  <si>
-    <t>Allez, plus que deux ! Cette fois-ci, il faut un Crabe dans une anémone parasite…</t>
-  </si>
-  <si>
-    <t>¡Vamos, más de dos! Esta vez, necesitas un cangrejo en una anémona parásita ...</t>
-  </si>
-  <si>
-    <t>Come on, only two left ! This time, you need a Crab in a parasitic anemone ...</t>
-  </si>
-  <si>
-    <t>Et pour finir, retrouve la Blennie ocelée !</t>
-  </si>
-  <si>
-    <t>Y finalmente, ¡encuentra a Blennie ocelada!</t>
-  </si>
-  <si>
-    <t>And finally, find the ocellated Blennie!</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (on dirait des poutres) et positionne-les aux bons endroits.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Il nous faut aussi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>des supports de tension</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Il y en a 4 également. Vas-y je te regarde !</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">On continue avec </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>le banc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, c'est la partie de devant.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Puis </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>les 2 jumelles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, en symétrie sur chacun des côtés.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Et enfin </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>la planche</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Parfait ! La structure est en place ! Positionne maintenant </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>les 2 rouleaux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, avant et arrière.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maintenant occupons-nous du mécanisme avec d'abord </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>le coulisseau</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Et </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>la pédale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>"Retournons au début du parcours, sous les arcades, le panorama sera joli !" (Batricia)</t>
+  </si>
+  <si>
+    <t>Let's go back to the start of the route, under the arcades, the panorama will be pretty!</t>
+  </si>
+  <si>
+    <t>Volvamos al inicio de la ruta, bajo las arcadas, ¡el panorama será bonito!</t>
   </si>
 </sst>
 </file>
@@ -2849,7 +2855,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2886,6 +2892,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2899,7 +2917,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2970,6 +2988,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3521,10 +3545,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:F225"/>
+  <dimension ref="A1:F226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C216" sqref="C216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3540,7 +3564,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3550,7 +3574,7 @@
     </row>
     <row r="4" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
@@ -3577,40 +3601,40 @@
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3632,23 +3656,23 @@
         <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3658,166 +3682,166 @@
         <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>411</v>
+      <c r="C14" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>733</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>413</v>
+      <c r="C16" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>416</v>
+        <v>736</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>417</v>
+      <c r="C21" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="2" t="s">
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>619</v>
+        <v>586</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>617</v>
+        <v>584</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>613</v>
+        <v>582</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3833,127 +3857,127 @@
         <v>1</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>421</v>
+      <c r="C29" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>739</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>425</v>
+        <v>729</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>740</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="4" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3969,223 +3993,223 @@
         <v>6</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>434</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>433</v>
+        <v>730</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>620</v>
+        <v>587</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4201,111 +4225,111 @@
         <v>7</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4313,16 +4337,16 @@
         <v>1</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>742</v>
+        <v>80</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>709</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>741</v>
+        <v>708</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>740</v>
+        <v>707</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4330,14 +4354,14 @@
         <v>2</v>
       </c>
       <c r="B66" s="6"/>
-      <c r="C66" s="14" t="s">
-        <v>729</v>
+      <c r="C66" s="22" t="s">
+        <v>696</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>731</v>
+        <v>698</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>743</v>
+        <v>710</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4345,14 +4369,14 @@
         <v>3</v>
       </c>
       <c r="B67" s="6"/>
-      <c r="C67" s="14" t="s">
-        <v>730</v>
+      <c r="C67" s="22" t="s">
+        <v>697</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>732</v>
+        <v>699</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>744</v>
+        <v>711</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4360,14 +4384,14 @@
         <v>4</v>
       </c>
       <c r="B68" s="6"/>
-      <c r="C68" s="14" t="s">
-        <v>750</v>
+      <c r="C68" s="22" t="s">
+        <v>717</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>751</v>
+        <v>718</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>752</v>
+        <v>719</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4375,14 +4399,14 @@
         <v>5</v>
       </c>
       <c r="B69" s="6"/>
-      <c r="C69" s="14" t="s">
-        <v>745</v>
+      <c r="C69" s="22" t="s">
+        <v>712</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>735</v>
+        <v>702</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>746</v>
+        <v>713</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4390,14 +4414,14 @@
         <v>6</v>
       </c>
       <c r="B70" s="6"/>
-      <c r="C70" s="14" t="s">
-        <v>733</v>
+      <c r="C70" s="22" t="s">
+        <v>700</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>736</v>
+        <v>703</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>747</v>
+        <v>714</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4405,14 +4429,14 @@
         <v>7</v>
       </c>
       <c r="B71" s="6"/>
-      <c r="C71" s="14" t="s">
-        <v>737</v>
+      <c r="C71" s="22" t="s">
+        <v>704</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>738</v>
+        <v>705</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>748</v>
+        <v>715</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4420,14 +4444,14 @@
         <v>8</v>
       </c>
       <c r="B72" s="6"/>
-      <c r="C72" s="14" t="s">
-        <v>734</v>
+      <c r="C72" s="22" t="s">
+        <v>701</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>739</v>
+        <v>706</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>749</v>
+        <v>716</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4435,14 +4459,14 @@
         <v>9</v>
       </c>
       <c r="B73" s="6"/>
-      <c r="C73" s="14" t="s">
-        <v>753</v>
+      <c r="C73" s="22" t="s">
+        <v>720</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>755</v>
+        <v>722</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>754</v>
+        <v>721</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4450,86 +4474,86 @@
         <v>10</v>
       </c>
       <c r="B74" s="6"/>
-      <c r="C74" s="14" t="s">
-        <v>756</v>
+      <c r="C74" s="22" t="s">
+        <v>723</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>758</v>
+        <v>725</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>757</v>
+        <v>724</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="C79" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4544,328 +4568,328 @@
         <v>8</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>397</v>
+        <v>42</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>382</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>479</v>
+        <v>86</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>457</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
-      <c r="C92" s="14" t="s">
-        <v>622</v>
+      <c r="C92" s="15" t="s">
+        <v>589</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="B93" s="13">
+        <v>365</v>
+      </c>
+      <c r="B93" s="22">
         <v>4</v>
       </c>
-      <c r="C93" s="14" t="s">
-        <v>568</v>
+      <c r="C93" s="15" t="s">
+        <v>750</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="B94" s="13">
+        <v>366</v>
+      </c>
+      <c r="B94" s="22">
         <v>4</v>
       </c>
-      <c r="C94" s="14" t="s">
-        <v>569</v>
+      <c r="C94" s="15" t="s">
+        <v>751</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="B95" s="13">
+        <v>367</v>
+      </c>
+      <c r="B95" s="22">
         <v>1</v>
       </c>
-      <c r="C95" s="14" t="s">
-        <v>570</v>
+      <c r="C95" s="15" t="s">
+        <v>752</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="B96" s="13">
+        <v>368</v>
+      </c>
+      <c r="B96" s="22">
         <v>2</v>
       </c>
-      <c r="C96" s="14" t="s">
-        <v>571</v>
+      <c r="C96" s="15" t="s">
+        <v>753</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="B97" s="13">
+        <v>369</v>
+      </c>
+      <c r="B97" s="22">
         <v>1</v>
       </c>
-      <c r="C97" s="14" t="s">
-        <v>572</v>
+      <c r="C97" s="15" t="s">
+        <v>754</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="B98" s="2">
         <v>2</v>
       </c>
-      <c r="C98" s="14" t="s">
-        <v>573</v>
+      <c r="C98" s="15" t="s">
+        <v>755</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="B99" s="2">
         <v>1</v>
       </c>
-      <c r="C99" s="14" t="s">
-        <v>574</v>
+      <c r="C99" s="15" t="s">
+        <v>756</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="B100" s="2">
         <v>1</v>
       </c>
-      <c r="C100" s="14" t="s">
-        <v>575</v>
+      <c r="C100" s="15" t="s">
+        <v>757</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="B101" s="2">
         <v>1</v>
       </c>
-      <c r="C101" s="14" t="s">
-        <v>621</v>
+      <c r="C101" s="15" t="s">
+        <v>588</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="B102" s="2">
         <v>1</v>
       </c>
-      <c r="C102" s="14" t="s">
-        <v>390</v>
+      <c r="C102" s="15" t="s">
+        <v>375</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4874,28 +4898,28 @@
     </row>
     <row r="104" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="C105" s="15" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>496</v>
+        <v>474</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4905,91 +4929,91 @@
     <row r="107" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C107" s="14" t="s">
-        <v>398</v>
+        <v>56</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>383</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>498</v>
+        <v>476</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>499</v>
+        <v>477</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="C111" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
-      <c r="C112" s="14" t="s">
-        <v>93</v>
+      <c r="C112" s="22" t="s">
+        <v>91</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
-      <c r="C113" s="14" t="s">
-        <v>94</v>
+      <c r="C113" s="22" t="s">
+        <v>92</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5004,184 +5028,184 @@
         <v>9</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C116" s="14" t="s">
-        <v>95</v>
+        <v>41</v>
+      </c>
+      <c r="C116" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C118" s="14" t="s">
-        <v>507</v>
+        <v>71</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>485</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
       <c r="B125" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5197,222 +5221,222 @@
         <v>10</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="C142" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
       <c r="B145" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
-      <c r="C146" s="14" t="s">
-        <v>535</v>
+      <c r="C146" s="22" t="s">
+        <v>513</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5428,352 +5452,352 @@
         <v>11</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
-      <c r="C156" s="14" t="s">
-        <v>545</v>
+      <c r="C156" s="22" t="s">
+        <v>523</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>549</v>
+        <v>527</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>553</v>
+        <v>531</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
       <c r="B164" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>554</v>
+        <v>532</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
-      <c r="C165" s="14" t="s">
-        <v>555</v>
+      <c r="C165" s="22" t="s">
+        <v>533</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>556</v>
+        <v>534</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C166" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>558</v>
+        <v>536</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C167" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>559</v>
+        <v>537</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C168" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>560</v>
+        <v>538</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C169" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>561</v>
+        <v>539</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C170" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>562</v>
+        <v>540</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="5"/>
       <c r="C171" s="2" t="s">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>563</v>
+        <v>541</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>565</v>
+        <v>543</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>567</v>
+        <v>545</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
-      <c r="C175" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>576</v>
+      <c r="C175" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="D175" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="E175" s="15" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5783,30 +5807,30 @@
     <row r="177" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="178" spans="1:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>577</v>
+        <v>547</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C179" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>578</v>
+        <v>548</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5816,16 +5840,16 @@
         <v>12</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5833,455 +5857,466 @@
         <v>2</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C184" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>582</v>
+        <v>552</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C185" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>583</v>
+        <v>553</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C186" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C187" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" s="26" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C188" s="26" t="s">
+        <v>758</v>
+      </c>
+      <c r="D188" s="26" t="s">
+        <v>759</v>
+      </c>
+      <c r="E188" s="26" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C189" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C190" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="D190" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C191" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E187" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C188" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D188" s="2" t="s">
+      <c r="E192" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C193" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="E188" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C189" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C190" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D190" s="2" t="s">
+      <c r="E193" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C194" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D194" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="E190" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C192" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C193" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" spans="1:5" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E194" s="25" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" spans="1:5" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>185</v>
+      </c>
       <c r="C197" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D197" s="17" t="s">
-        <v>347</v>
+        <v>337</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>603</v>
+        <v>562</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C198" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
+      </c>
+      <c r="D198" s="17" t="s">
+        <v>342</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C199" s="2" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>594</v>
+        <v>563</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C200" s="2" t="s">
-        <v>189</v>
+        <v>343</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>595</v>
+        <v>564</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C201" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C202" s="2" t="s">
-        <v>351</v>
+        <v>187</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>602</v>
+        <v>566</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C203" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>597</v>
+      <c r="C203" s="14" t="s">
+        <v>731</v>
+      </c>
+      <c r="D203" s="14" t="s">
+        <v>731</v>
+      </c>
+      <c r="E203" s="14" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C204" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>598</v>
+        <v>567</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C205" s="2" t="s">
-        <v>353</v>
+        <v>189</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>599</v>
+        <v>568</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C206" s="2" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>600</v>
+        <v>569</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C207" s="2" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>601</v>
+        <v>570</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C208" s="2" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B210" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C210" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C209" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C212" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C213" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B215" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D210" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C211" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C212" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B214" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C215" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C216" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C217" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C218" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D216" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C217" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="8" t="s">
+      <c r="C219" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C219" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D219" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C220" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>168</v>
+        <v>333</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C221" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B223" s="8" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C222" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B224" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C224" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="225" spans="3:5" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="225" spans="3:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C225" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>614</v>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="226" spans="3:5" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C226" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="D226" s="14" t="s">
+        <v>742</v>
+      </c>
+      <c r="E226" s="14" t="s">
+        <v>743</v>
       </c>
     </row>
   </sheetData>
@@ -6294,6 +6329,866 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L72"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40" style="2" customWidth="1"/>
+    <col min="3" max="3" width="69.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="58.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="60.85546875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="303.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>591</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="271.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C18" s="15"/>
+    </row>
+    <row r="19" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="18"/>
+    </row>
+    <row r="24" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
+      <c r="B27" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="218.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C29" s="15"/>
+    </row>
+    <row r="30" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
+      <c r="B35" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="20"/>
+      <c r="B36" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>682</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="L36" s="23"/>
+    </row>
+    <row r="37" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
+      <c r="B37" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="20"/>
+      <c r="B38" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C40" s="15"/>
+    </row>
+    <row r="41" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+      <c r="B45" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="20"/>
+      <c r="B46" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="20"/>
+      <c r="B47" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="20"/>
+      <c r="B48" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="20"/>
+      <c r="B49" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="315" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C51" s="15"/>
+    </row>
+    <row r="52" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="19"/>
+      <c r="B55" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="19"/>
+      <c r="B56" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="18"/>
+    </row>
+    <row r="57" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="20"/>
+      <c r="B57" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="20"/>
+      <c r="B58" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="20"/>
+      <c r="B59" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="20"/>
+      <c r="B60" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="295.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C62" s="15"/>
+    </row>
+    <row r="63" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="19"/>
+      <c r="B66" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="19"/>
+      <c r="B67" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67" s="18"/>
+    </row>
+    <row r="68" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="20"/>
+      <c r="B68" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="20"/>
+      <c r="B69" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="20"/>
+      <c r="B70" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="20"/>
+      <c r="B71" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
@@ -6312,7 +7207,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6329,28 +7224,28 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>615</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="4" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6370,28 +7265,28 @@
         <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="4" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="4" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6411,28 +7306,28 @@
         <v>8</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="4" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="4" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="4" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6452,28 +7347,28 @@
         <v>9</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="4" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="4" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="4" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6493,28 +7388,28 @@
         <v>10</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="4" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="4" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="4" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6534,28 +7429,28 @@
         <v>11</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="4" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="4" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="4" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6570,855 +7465,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L72"/>
-  <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="41.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="40" style="2" customWidth="1"/>
-    <col min="3" max="3" width="69.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="58.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="60.85546875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-    </row>
-    <row r="6" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="303.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="C7" s="15"/>
-    </row>
-    <row r="8" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>624</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="271.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="C18" s="15"/>
-    </row>
-    <row r="19" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C23" s="18"/>
-    </row>
-    <row r="24" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="218.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="C29" s="15"/>
-    </row>
-    <row r="30" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>715</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="L36" s="23"/>
-    </row>
-    <row r="37" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="C40" s="15"/>
-    </row>
-    <row r="41" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="315" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="C51" s="15"/>
-    </row>
-    <row r="52" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
-      <c r="B55" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
-      <c r="B56" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C56" s="18"/>
-    </row>
-    <row r="57" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
-      <c r="B57" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="20"/>
-      <c r="B58" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
-      <c r="B59" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
-      <c r="B60" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="295.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="C62" s="15"/>
-    </row>
-    <row r="63" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="B63" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>643</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="E65" s="21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
-      <c r="B66" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="19"/>
-      <c r="B67" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C67" s="18"/>
-    </row>
-    <row r="68" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="20"/>
-      <c r="B68" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="20"/>
-      <c r="B69" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="20"/>
-      <c r="B70" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="20"/>
-      <c r="B71" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C5:E5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>